--- a/data/documentation/spreadsheets/done/benbalter@word-to-markdown.xlsx
+++ b/data/documentation/spreadsheets/done/benbalter@word-to-markdown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEF7E6F-1EE4-49CD-AF1A-78D45EC4D791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9095B9C-A7EE-4FF2-A965-6348F9C28CE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -546,8 +546,8 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -824,33 +824,21 @@
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
-        <v>67</v>
-      </c>
       <c r="G47" t="s">
         <v>67</v>
       </c>
@@ -859,9 +847,6 @@
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
       <c r="G48" t="s">
         <v>67</v>
       </c>
@@ -870,9 +855,6 @@
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
       <c r="G49" t="s">
         <v>67</v>
       </c>
@@ -881,9 +863,6 @@
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
       <c r="G50" t="s">
         <v>67</v>
       </c>
@@ -892,9 +871,6 @@
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
       <c r="G51" t="s">
         <v>67</v>
       </c>
@@ -903,7 +879,7 @@
       <c r="A52" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
+      <c r="G52" t="s">
         <v>67</v>
       </c>
     </row>
@@ -959,20 +935,32 @@
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
